--- a/trading_strategy/results/P&L results_EURUSD.xlsx
+++ b/trading_strategy/results/P&L results_EURUSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparn\Documents\GitHub\cpp_code\trading_strategy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7785150-979C-4259-BCD8-3AB53B74511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5895802-184F-4BC2-97B4-89C075B45BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{55E6D3DF-BA7B-4CA8-AD91-35BEFE8C3FDC}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,11 +898,11 @@
       </c>
       <c r="D16" s="2">
         <f>'P&amp;L tick'!D5</f>
-        <v>1437.7840000000001</v>
+        <v>437.78400000000011</v>
       </c>
       <c r="E16" s="2">
         <f>'P&amp;L tick'!E5</f>
-        <v>154.35978000000046</v>
+        <v>-845.64021999999954</v>
       </c>
       <c r="G16" t="str">
         <f>'P&amp;L tick'!G5</f>
@@ -997,11 +997,11 @@
       </c>
       <c r="D19" s="3">
         <f>'P&amp;L tick'!D8</f>
-        <v>7781.9530000000004</v>
+        <v>6781.9529999999995</v>
       </c>
       <c r="E19" s="3">
         <f>'P&amp;L tick'!E8</f>
-        <v>6438.2707800000007</v>
+        <v>5438.2707799999998</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="D20" s="1">
         <f>'P&amp;L tick'!D9</f>
-        <v>1.86766872E-2</v>
+        <v>1.6276687199999997E-2</v>
       </c>
       <c r="E20" s="1">
         <f>'P&amp;L tick'!E9</f>
-        <v>1.5451849872E-2</v>
+        <v>1.3051849871999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1777,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,11 +1888,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D7" si="3">J15</f>
-        <v>1437.7840000000001</v>
+        <v>437.78400000000011</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>154.35978000000046</v>
+        <v>-845.64021999999954</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="D8" s="3">
         <f>SUM(D3:D7)</f>
-        <v>7781.9530000000004</v>
+        <v>6781.9529999999995</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>6438.2707800000007</v>
+        <v>5438.2707799999998</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="D9" s="1">
         <f>D8/1000000*12/COUNT(D3:D7)</f>
-        <v>1.86766872E-2</v>
+        <v>1.6276687199999997E-2</v>
       </c>
       <c r="E9" s="1">
         <f>E8/1000000*12/COUNT(E3:E7)</f>
-        <v>1.5451849872E-2</v>
+        <v>1.3051849871999999E-2</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -2145,14 +2145,14 @@
         <v>1662.77</v>
       </c>
       <c r="H15" s="2">
-        <v>-794.62</v>
+        <v>-1794.62</v>
       </c>
       <c r="I15" s="2">
         <v>569.63400000000001</v>
       </c>
       <c r="J15" s="2">
         <f>SUM(G15:I15)</f>
-        <v>1437.7840000000001</v>
+        <v>437.78400000000011</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="6"/>
-        <v>-7642.45</v>
+        <v>-8642.4500000000007</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="6"/>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="6"/>
-        <v>7781.9530000000004</v>
+        <v>6781.9529999999995</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
